--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム送信).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム送信).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F79EC98-0960-44A8-B74E-B1B8CE018829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00250414-E2C8-4AE7-A417-85C4CA3EBC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>システム名</t>
   </si>
@@ -31,13 +31,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2017/8/22</t>
-  </si>
-  <si>
     <t>作成者</t>
-  </si>
-  <si>
-    <t>内海 智也</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -68,20 +62,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>岩田侑大</t>
-    <rPh sb="0" eb="2">
-      <t>イワタ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユウダイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>2019/11/07</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>商品画面に戻るボタン</t>
@@ -136,6 +116,14 @@
     <rPh sb="13" eb="15">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/11/07</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>岩田侑大</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -535,16 +523,33 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,23 +574,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1149,7 +1137,7 @@
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1159,188 +1147,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="28" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="44" t="s">
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="28" t="s">
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+    </row>
+    <row r="2" spans="1:78" ht="27.75" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="45" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-    </row>
-    <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="31" t="s">
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="46"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="53"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -1427,10 +1411,10 @@
     <row r="4" spans="1:78" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1547,51 +1531,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="38" t="s">
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="40"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="46"/>
+      <c r="BG5" s="46"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="46"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="46"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="46"/>
+      <c r="BW5" s="47"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -1635,43 +1619,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
-      <c r="BQ6" s="42"/>
-      <c r="BR6" s="42"/>
-      <c r="BS6" s="42"/>
-      <c r="BT6" s="42"/>
-      <c r="BU6" s="42"/>
-      <c r="BV6" s="42"/>
-      <c r="BW6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="50"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -1715,12 +1699,12 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="48" t="s">
-        <v>15</v>
+      <c r="AM7" s="29" t="s">
+        <v>13</v>
       </c>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="54" t="s">
-        <v>18</v>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
@@ -1733,8 +1717,8 @@
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="13"/>
-      <c r="BA7" s="54" t="s">
-        <v>19</v>
+      <c r="BA7" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="BB7" s="12"/>
       <c r="BC7" s="12"/>
@@ -1881,8 +1865,8 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="49"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="30"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
@@ -2041,8 +2025,8 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="49"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="30"/>
       <c r="AO11" s="11"/>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
@@ -2201,8 +2185,8 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="49"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="30"/>
       <c r="AO13" s="27"/>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
@@ -2280,8 +2264,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="49"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="30"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -2440,8 +2424,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="49"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="30"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -2760,8 +2744,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="49"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="30"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3000,8 +2984,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="49"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="30"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -3240,8 +3224,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="49"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="30"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -3480,8 +3464,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="49"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="30"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -67123,6 +67107,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67138,19 +67135,6 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
